--- a/KRI.xlsx
+++ b/KRI.xlsx
@@ -803,7 +803,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="191" formatCode="B1d\-mmm\-yy"/>
+    <numFmt numFmtId="187" formatCode="B1d\-mmm\-yy"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1328,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="191" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1671,13 +1671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN145"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" bestFit="1" customWidth="1"/>
@@ -1714,7 +1714,7 @@
     <col min="41" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -1877,6 +1877,9 @@
         <v>50</v>
       </c>
       <c r="P2" s="4"/>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
       <c r="U2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>115</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>118</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>124</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>127</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>130</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>133</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>136</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>142</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>145</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>149</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>153</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>157</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>160</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>163</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>166</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>169</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>172</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>175</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>178</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>181</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>184</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>189</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>192</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>195</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>197</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>199</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>202</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>205</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>206</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>209</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>212</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>218</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>221</v>
       </c>
@@ -5682,7 +5685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>224</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>227</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>230</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>233</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>237</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>240</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>243</v>
       </c>
@@ -6219,7 +6222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>246</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>249</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>252</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>255</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>257</v>
       </c>
@@ -6609,69 +6612,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
